--- a/Experiments/Kuril Islands Conflict/Kuril Islands Conflict Score Statistics.xlsx
+++ b/Experiments/Kuril Islands Conflict/Kuril Islands Conflict Score Statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="12200"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>value</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>61 Kongo</t>
+  </si>
+  <si>
+    <t>TCGA</t>
+  </si>
+  <si>
+    <t>TCGA-perturbed version</t>
+  </si>
+  <si>
+    <t>92 Murasame</t>
   </si>
   <si>
     <t>Eliminate High-value Targets</t>
@@ -870,7 +879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,6 +909,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1227,10 +1242,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AB45"/>
+  <dimension ref="A2:AB51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1277,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1302,7 +1317,7 @@
         <f>(210*81+230*10)/100</f>
         <v>193.1</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="13">
         <f>H3/E3</f>
         <v>0.804918716131722</v>
       </c>
@@ -1320,7 +1335,7 @@
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -1330,7 +1345,7 @@
         <v>270</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="J5" s="12"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
@@ -1345,7 +1360,7 @@
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
@@ -1365,7 +1380,7 @@
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="14"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="10" spans="4:19">
       <c r="D10" s="3"/>
@@ -1378,7 +1393,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3"/>
@@ -1391,7 +1406,7 @@
         <v>17</v>
       </c>
       <c r="R10" s="4"/>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1410,7 +1425,7 @@
         <f>(210*58+270*100+230*61)/100</f>
         <v>532.1</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="13">
         <f>H11/E11</f>
         <v>0.769375361480625</v>
       </c>
@@ -1428,7 +1443,7 @@
         <f>270</f>
         <v>270</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="13">
         <f>Q11/N11</f>
         <v>1</v>
       </c>
@@ -1440,9 +1455,9 @@
       <c r="G12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="14"/>
       <c r="M12" s="6"/>
-      <c r="S12" s="12"/>
+      <c r="S12" s="14"/>
     </row>
     <row r="13" spans="4:19">
       <c r="D13" s="6" t="s">
@@ -1451,15 +1466,15 @@
       <c r="G13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="14"/>
       <c r="M13" s="6"/>
-      <c r="S13" s="12"/>
+      <c r="S13" s="14"/>
     </row>
     <row r="14" spans="4:19">
       <c r="D14" s="6"/>
-      <c r="J14" s="12"/>
+      <c r="J14" s="14"/>
       <c r="M14" s="6"/>
-      <c r="S14" s="12"/>
+      <c r="S14" s="14"/>
     </row>
     <row r="15" spans="4:19">
       <c r="D15" s="6" t="s">
@@ -1468,14 +1483,14 @@
       <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="15"/>
       <c r="M15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="13"/>
+      <c r="S15" s="15"/>
     </row>
     <row r="16" spans="4:19">
       <c r="D16" s="7">
@@ -1489,7 +1504,7 @@
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="14"/>
+      <c r="J16" s="16"/>
       <c r="M16" s="7">
         <v>1</v>
       </c>
@@ -1500,398 +1515,474 @@
       </c>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="14"/>
-    </row>
-    <row r="19" spans="4:28">
-      <c r="D19" s="3"/>
-      <c r="E19" s="4" t="s">
+      <c r="S16" s="16"/>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="10" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="4:28">
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1">
+        <v>480</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="1">
+        <v>463.2</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19" s="13">
+        <f>H19/E19</f>
+        <v>0.965</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
       <c r="D20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20"/>
+      <c r="G20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="6"/>
+      <c r="F21"/>
+      <c r="I21"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="4:10">
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="9">
+        <v>1.92</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="25" spans="4:28">
+      <c r="D25" s="3"/>
+      <c r="E25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="4:28">
+      <c r="D26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
         <f>(210*100+270*100+450*74+230*88)/100</f>
         <v>1015.4</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H26" s="1">
         <f>(210*100+270*100+450*59+230*80)/100</f>
         <v>929.5</v>
       </c>
-      <c r="J20" s="11">
-        <f>H20/E20</f>
+      <c r="J26" s="13">
+        <f>H26/E26</f>
         <v>0.915402796927319</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N26" s="1">
         <f>210</f>
         <v>210</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q26" s="1">
         <f>210</f>
         <v>210</v>
       </c>
-      <c r="S20" s="11">
-        <f>Q20/N20</f>
+      <c r="S26" s="13">
+        <f>Q26/N26</f>
         <v>1</v>
       </c>
-      <c r="V20" s="6" t="s">
+      <c r="V26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W26" s="1">
         <f>(210*100+270*100+450*0+230*90)/100</f>
         <v>687</v>
       </c>
-      <c r="Y20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z20" s="1">
+      <c r="Y26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z26" s="1">
         <f>(210*79+270*100+450*0+230*80)/100</f>
         <v>619.9</v>
       </c>
-      <c r="AB20" s="11">
-        <f>Z20/W20</f>
+      <c r="AB26" s="13">
+        <f>Z26/W26</f>
         <v>0.902328966521106</v>
       </c>
     </row>
-    <row r="21" spans="4:28">
-      <c r="D21" s="6" t="s">
+    <row r="27" spans="4:28">
+      <c r="D27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="M21" s="6"/>
-      <c r="S21" s="12"/>
-      <c r="V21" s="6" t="s">
+      <c r="J27" s="14"/>
+      <c r="M27" s="6"/>
+      <c r="S27" s="14"/>
+      <c r="V27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Y27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AB21" s="12"/>
-    </row>
-    <row r="22" spans="4:28">
-      <c r="D22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="M22" s="6"/>
-      <c r="S22" s="12"/>
-      <c r="V22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB22" s="12"/>
-    </row>
-    <row r="23" spans="4:28">
-      <c r="D23" s="6" t="s">
+      <c r="AB27" s="14"/>
+    </row>
+    <row r="28" spans="4:28">
+      <c r="D28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="13"/>
-      <c r="M23" s="6"/>
-      <c r="S23" s="13"/>
-      <c r="V23" s="6" t="s">
+      <c r="J28" s="14"/>
+      <c r="M28" s="6"/>
+      <c r="S28" s="14"/>
+      <c r="V28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Y23" s="2" t="s">
+      <c r="Y28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB28" s="14"/>
+    </row>
+    <row r="29" spans="4:28">
+      <c r="D29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AB23" s="13"/>
-    </row>
-    <row r="24" spans="4:28">
-      <c r="D24" s="6"/>
-      <c r="J24" s="13"/>
-      <c r="M24" s="6"/>
-      <c r="S24" s="13"/>
-      <c r="V24" s="6"/>
-      <c r="AB24" s="13"/>
-    </row>
-    <row r="25" spans="4:28">
-      <c r="D25" s="6" t="s">
+      <c r="G29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="M29" s="6"/>
+      <c r="S29" s="15"/>
+      <c r="V29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB29" s="15"/>
+    </row>
+    <row r="30" spans="4:28">
+      <c r="D30" s="6"/>
+      <c r="J30" s="15"/>
+      <c r="M30" s="6"/>
+      <c r="S30" s="15"/>
+      <c r="V30" s="6"/>
+      <c r="AB30" s="15"/>
+    </row>
+    <row r="31" spans="4:28">
+      <c r="D31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="13"/>
-      <c r="M25" s="6" t="s">
+      <c r="J31" s="15"/>
+      <c r="M31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S25" s="13"/>
-      <c r="V25" s="6" t="s">
+      <c r="S31" s="15"/>
+      <c r="V31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Y25" s="2" t="s">
+      <c r="Y31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AB25" s="13"/>
-    </row>
-    <row r="26" spans="4:28">
-      <c r="D26" s="7">
+      <c r="AB31" s="15"/>
+    </row>
+    <row r="32" spans="4:28">
+      <c r="D32" s="7">
         <f>(100+100+88+74)/100</f>
         <v>3.62</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9">
         <f>(100+100+80+59)/100</f>
         <v>3.39</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="14"/>
-      <c r="M26" s="7">
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="16"/>
+      <c r="M32" s="7">
         <v>1</v>
       </c>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="9">
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="9">
         <v>1</v>
       </c>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="14"/>
-      <c r="V26" s="7">
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="16"/>
+      <c r="V32" s="7">
         <f>(100+100+90)/100</f>
         <v>2.9</v>
       </c>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="9">
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="9">
         <f>(79+100+76)/100</f>
         <v>2.55</v>
       </c>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="14"/>
-    </row>
-    <row r="29" spans="4:10">
-      <c r="D29" s="3"/>
-      <c r="E29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="10" t="s">
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="16"/>
+    </row>
+    <row r="35" spans="4:10">
+      <c r="D35" s="3"/>
+      <c r="E35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="4:10">
-      <c r="D30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="1">
+    <row r="36" spans="4:10">
+      <c r="D36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="1">
         <f>(210*84+270*100+450*75+230*89)/100</f>
         <v>988.6</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="G36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="1">
         <f>(210*86+270*100+450*61+230*77)/100</f>
         <v>902.2</v>
       </c>
-      <c r="J30" s="11">
-        <f>H30/E30</f>
+      <c r="J36" s="13">
+        <f>H36/E36</f>
         <v>0.912603681974509</v>
       </c>
     </row>
-    <row r="31" spans="4:10">
-      <c r="D31" s="6" t="s">
+    <row r="37" spans="4:10">
+      <c r="D37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="4:10">
-      <c r="D32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="4:10">
-      <c r="D33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="4:10">
+      <c r="D38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="4:10">
-      <c r="D34" s="6"/>
-      <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="4:10">
-      <c r="D35" s="6" t="s">
+      <c r="G38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="4:10">
+      <c r="D39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="4:10">
+      <c r="D40" s="6"/>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="4:10">
+      <c r="D41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="4:10">
-      <c r="D36" s="7">
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="4:10">
+      <c r="D42" s="7">
         <f>(84+100+75+89)/100</f>
         <v>3.48</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9">
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="9">
         <f>(87+100+61+77)/100</f>
         <v>3.25</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="39" spans="4:10">
-      <c r="D39" s="3"/>
-      <c r="E39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="10" t="s">
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="16"/>
+    </row>
+    <row r="45" spans="4:10">
+      <c r="D45" s="3"/>
+      <c r="E45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="4:10">
-      <c r="D40" s="6" t="s">
+    <row r="46" spans="4:10">
+      <c r="D46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E46" s="1">
         <f>(210*100+270*100+230*91)/100</f>
         <v>689.3</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H46" s="1">
         <f>(210*100+270*100+230*78)/100</f>
         <v>659.4</v>
       </c>
-      <c r="J40" s="11">
-        <f>H40/E40</f>
+      <c r="J46" s="13">
+        <f>H46/E46</f>
         <v>0.956622660670245</v>
       </c>
     </row>
-    <row r="41" spans="4:10">
-      <c r="D41" s="6" t="s">
+    <row r="47" spans="4:10">
+      <c r="D47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="4:10">
-      <c r="D42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="4:10">
-      <c r="D43" s="6"/>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="4:10">
-      <c r="D44" s="6" t="s">
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="4:10">
+      <c r="D48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="4:10">
+      <c r="D49" s="6"/>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="4:10">
+      <c r="D50" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="13"/>
-    </row>
-    <row r="45" spans="4:10">
-      <c r="D45" s="7">
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="4:10">
+      <c r="D51" s="7">
         <f>2.91</f>
         <v>2.91</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9">
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9">
         <v>2.78</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="14"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
